--- a/Data/Tree_data.xlsx
+++ b/Data/Tree_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -30,6 +30,15 @@
   </si>
   <si>
     <t xml:space="preserve">Stem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spruce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beech</t>
   </si>
 </sst>
 </file>
@@ -385,17 +394,17 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>101.5</v>
+        <v>102.7</v>
       </c>
       <c r="F2" t="n">
         <v>10</v>
@@ -405,28 +414,28 @@
       <c r="A3" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>114.5</v>
+        <v>103.7</v>
       </c>
       <c r="F3" t="n">
-        <v>10.1</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>1</v>
       </c>
-      <c r="B4" t="n">
-        <v>1</v>
+      <c r="B4" t="s">
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -435,47 +444,47 @@
         <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>122.7</v>
+        <v>108</v>
       </c>
       <c r="F4" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>1</v>
       </c>
-      <c r="B5" t="n">
-        <v>1</v>
+      <c r="B5" t="s">
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E5" t="n">
-        <v>133.6</v>
+        <v>116.3</v>
       </c>
       <c r="F5" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>1</v>
       </c>
-      <c r="B6" t="n">
-        <v>2</v>
+      <c r="B6" t="s">
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E6" t="n">
-        <v>100.3</v>
+        <v>105.3</v>
       </c>
       <c r="F6" t="n">
         <v>10.1</v>
@@ -485,17 +494,17 @@
       <c r="A7" t="n">
         <v>1</v>
       </c>
-      <c r="B7" t="n">
-        <v>2</v>
+      <c r="B7" t="s">
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>103.3</v>
+        <v>110.4</v>
       </c>
       <c r="F7" t="n">
         <v>10.2</v>
@@ -505,348 +514,348 @@
       <c r="A8" t="n">
         <v>1</v>
       </c>
-      <c r="B8" t="n">
-        <v>2</v>
+      <c r="B8" t="s">
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" t="n">
-        <v>122.3</v>
+        <v>127.1</v>
       </c>
       <c r="F8" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>1</v>
       </c>
-      <c r="B9" t="n">
-        <v>2</v>
+      <c r="B9" t="s">
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E9" t="n">
-        <v>147.2</v>
+        <v>145.5</v>
       </c>
       <c r="F9" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>106.7</v>
+        <v>103.2</v>
       </c>
       <c r="F10" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E11" t="n">
-        <v>110.2</v>
+        <v>107.8</v>
       </c>
       <c r="F11" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
-        <v>113.7</v>
+        <v>129.1</v>
       </c>
       <c r="F12" t="n">
-        <v>11</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E13" t="n">
-        <v>127.6</v>
+        <v>159.5</v>
       </c>
       <c r="F13" t="n">
-        <v>11.3</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>2</v>
       </c>
-      <c r="B14" t="n">
-        <v>2</v>
+      <c r="B14" t="s">
+        <v>6</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>102.3</v>
+        <v>101.9</v>
       </c>
       <c r="F14" t="n">
-        <v>10.3</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>2</v>
       </c>
-      <c r="B15" t="n">
-        <v>2</v>
+      <c r="B15" t="s">
+        <v>6</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>113.7</v>
+        <v>102.6</v>
       </c>
       <c r="F15" t="n">
-        <v>10.7</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>2</v>
       </c>
-      <c r="B16" t="n">
-        <v>2</v>
+      <c r="B16" t="s">
+        <v>6</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E16" t="n">
-        <v>121</v>
+        <v>110.8</v>
       </c>
       <c r="F16" t="n">
-        <v>11.2</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>2</v>
       </c>
-      <c r="B17" t="n">
-        <v>2</v>
+      <c r="B17" t="s">
+        <v>6</v>
       </c>
       <c r="C17" t="n">
         <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>137.8</v>
+        <v>114.1</v>
       </c>
       <c r="F17" t="n">
-        <v>12</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>102.4</v>
+        <v>106.2</v>
       </c>
       <c r="F18" t="n">
-        <v>10.2</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E19" t="n">
-        <v>109.8</v>
+        <v>113.3</v>
       </c>
       <c r="F19" t="n">
-        <v>10.2</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E20" t="n">
-        <v>118</v>
+        <v>125.6</v>
       </c>
       <c r="F20" t="n">
-        <v>10.4</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
       </c>
       <c r="C21" t="n">
         <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E21" t="n">
-        <v>124.4</v>
+        <v>141.1</v>
       </c>
       <c r="F21" t="n">
-        <v>11.1</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
-      </c>
-      <c r="B22" t="n">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E22" t="n">
-        <v>100</v>
+        <v>104.7</v>
       </c>
       <c r="F22" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B23" t="n">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E23" t="n">
-        <v>114.3</v>
+        <v>109.1</v>
       </c>
       <c r="F23" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
-      </c>
-      <c r="B24" t="n">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
       </c>
       <c r="C24" t="n">
         <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E24" t="n">
-        <v>125.9</v>
+        <v>125.6</v>
       </c>
       <c r="F24" t="n">
-        <v>10.4</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
-      </c>
-      <c r="B25" t="n">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
       </c>
       <c r="C25" t="n">
         <v>3</v>
@@ -855,187 +864,187 @@
         <v>12</v>
       </c>
       <c r="E25" t="n">
-        <v>152.4</v>
+        <v>147.1</v>
       </c>
       <c r="F25" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
-      </c>
-      <c r="B26" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>109</v>
+        <v>106.3</v>
       </c>
       <c r="F26" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
-      </c>
-      <c r="B27" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E27" t="n">
-        <v>110.1</v>
+        <v>110.5</v>
       </c>
       <c r="F27" t="n">
-        <v>10.5</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
-      </c>
-      <c r="B28" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
       </c>
       <c r="C28" t="n">
         <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E28" t="n">
-        <v>115.5</v>
+        <v>113.4</v>
       </c>
       <c r="F28" t="n">
-        <v>10.9</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
-      </c>
-      <c r="B29" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
       </c>
       <c r="C29" t="n">
         <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E29" t="n">
-        <v>119.9</v>
+        <v>118.1</v>
       </c>
       <c r="F29" t="n">
-        <v>11.6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
-      </c>
-      <c r="B30" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E30" t="n">
-        <v>101.2</v>
+        <v>102.2</v>
       </c>
       <c r="F30" t="n">
-        <v>10</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
-      </c>
-      <c r="B31" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E31" t="n">
-        <v>107.6</v>
+        <v>108.7</v>
       </c>
       <c r="F31" t="n">
-        <v>10.2</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4</v>
-      </c>
-      <c r="B32" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
       </c>
       <c r="C32" t="n">
         <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E32" t="n">
-        <v>117.9</v>
+        <v>116.2</v>
       </c>
       <c r="F32" t="n">
-        <v>10.7</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4</v>
-      </c>
-      <c r="B33" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
       </c>
       <c r="C33" t="n">
         <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E33" t="n">
-        <v>144.1</v>
+        <v>132.4</v>
       </c>
       <c r="F33" t="n">
-        <v>11.1</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
         <v>5</v>
       </c>
-      <c r="B34" t="n">
-        <v>1</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" t="n">
-        <v>4</v>
-      </c>
       <c r="E34" t="n">
-        <v>106.5</v>
+        <v>100.6</v>
       </c>
       <c r="F34" t="n">
         <v>10.1</v>
@@ -1043,239 +1052,239 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5</v>
-      </c>
-      <c r="B35" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
       </c>
       <c r="C35" t="n">
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E35" t="n">
-        <v>107.1</v>
+        <v>113.3</v>
       </c>
       <c r="F35" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5</v>
-      </c>
-      <c r="B36" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
       </c>
       <c r="C36" t="n">
         <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E36" t="n">
-        <v>113.1</v>
+        <v>131.6</v>
       </c>
       <c r="F36" t="n">
-        <v>10.8</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5</v>
-      </c>
-      <c r="B37" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
       </c>
       <c r="C37" t="n">
         <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E37" t="n">
-        <v>116.4</v>
+        <v>160.2</v>
       </c>
       <c r="F37" t="n">
-        <v>11.1</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5</v>
-      </c>
-      <c r="B38" t="n">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E38" t="n">
-        <v>100.8</v>
+        <v>104.7</v>
       </c>
       <c r="F38" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
         <v>5</v>
       </c>
-      <c r="B39" t="n">
-        <v>2</v>
-      </c>
-      <c r="C39" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" t="n">
-        <v>7</v>
-      </c>
       <c r="E39" t="n">
-        <v>107.1</v>
+        <v>109.2</v>
       </c>
       <c r="F39" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5</v>
-      </c>
-      <c r="B40" t="n">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E40" t="n">
-        <v>107.4</v>
+        <v>115.5</v>
       </c>
       <c r="F40" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5</v>
-      </c>
-      <c r="B41" t="n">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
       </c>
       <c r="C41" t="n">
         <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>130.4</v>
+        <v>132.9</v>
       </c>
       <c r="F41" t="n">
-        <v>11.5</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>6</v>
-      </c>
-      <c r="B42" t="n">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E42" t="n">
-        <v>106.9</v>
+        <v>102.2</v>
       </c>
       <c r="F42" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6</v>
-      </c>
-      <c r="B43" t="n">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
       </c>
       <c r="C43" t="n">
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E43" t="n">
-        <v>110.8</v>
+        <v>114.6</v>
       </c>
       <c r="F43" t="n">
-        <v>10.5</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6</v>
-      </c>
-      <c r="B44" t="n">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
       </c>
       <c r="C44" t="n">
         <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E44" t="n">
-        <v>111.4</v>
+        <v>124.4</v>
       </c>
       <c r="F44" t="n">
-        <v>11</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6</v>
-      </c>
-      <c r="B45" t="n">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
       </c>
       <c r="C45" t="n">
         <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E45" t="n">
-        <v>128.1</v>
+        <v>142.8</v>
       </c>
       <c r="F45" t="n">
-        <v>11.6</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6</v>
-      </c>
-      <c r="B46" t="n">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>103.3</v>
+        <v>101.5</v>
       </c>
       <c r="F46" t="n">
         <v>10.1</v>
@@ -1283,110 +1292,110 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>6</v>
-      </c>
-      <c r="B47" t="n">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
       </c>
       <c r="C47" t="n">
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E47" t="n">
-        <v>114.6</v>
+        <v>104.3</v>
       </c>
       <c r="F47" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>6</v>
-      </c>
-      <c r="B48" t="n">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
       </c>
       <c r="C48" t="n">
         <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E48" t="n">
-        <v>121.9</v>
+        <v>118.6</v>
       </c>
       <c r="F48" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>6</v>
-      </c>
-      <c r="B49" t="n">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
       </c>
       <c r="C49" t="n">
         <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E49" t="n">
-        <v>136.5</v>
+        <v>140.8</v>
       </c>
       <c r="F49" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>7</v>
-      </c>
-      <c r="B50" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E50" t="n">
-        <v>103.9</v>
+        <v>104.5</v>
       </c>
       <c r="F50" t="n">
-        <v>10</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>7</v>
-      </c>
-      <c r="B51" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E51" t="n">
-        <v>108</v>
+        <v>109.5</v>
       </c>
       <c r="F51" t="n">
-        <v>10.2</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>7</v>
-      </c>
-      <c r="B52" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
       </c>
       <c r="C52" t="n">
         <v>2</v>
@@ -1395,87 +1404,87 @@
         <v>3</v>
       </c>
       <c r="E52" t="n">
-        <v>121</v>
+        <v>122.3</v>
       </c>
       <c r="F52" t="n">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>7</v>
-      </c>
-      <c r="B53" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
       </c>
       <c r="C53" t="n">
         <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E53" t="n">
-        <v>127.5</v>
+        <v>130.8</v>
       </c>
       <c r="F53" t="n">
-        <v>11.5</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>7</v>
-      </c>
-      <c r="B54" t="n">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>107.8</v>
+        <v>100.5</v>
       </c>
       <c r="F54" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>7</v>
-      </c>
-      <c r="B55" t="n">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
       </c>
       <c r="C55" t="n">
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E55" t="n">
-        <v>112.4</v>
+        <v>100.9</v>
       </c>
       <c r="F55" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>7</v>
-      </c>
-      <c r="B56" t="n">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
       </c>
       <c r="C56" t="n">
         <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>126.6</v>
+        <v>118.2</v>
       </c>
       <c r="F56" t="n">
         <v>10.8</v>
@@ -1483,39 +1492,39 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>7</v>
-      </c>
-      <c r="B57" t="n">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
       </c>
       <c r="C57" t="n">
         <v>3</v>
       </c>
       <c r="D57" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E57" t="n">
-        <v>143.9</v>
+        <v>129.8</v>
       </c>
       <c r="F57" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>8</v>
-      </c>
-      <c r="B58" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E58" t="n">
-        <v>101.5</v>
+        <v>102</v>
       </c>
       <c r="F58" t="n">
         <v>10</v>
@@ -1523,79 +1532,79 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>8</v>
-      </c>
-      <c r="B59" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
       </c>
       <c r="C59" t="n">
         <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E59" t="n">
-        <v>102.2</v>
+        <v>110.7</v>
       </c>
       <c r="F59" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>8</v>
-      </c>
-      <c r="B60" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
       </c>
       <c r="C60" t="n">
         <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E60" t="n">
-        <v>109.2</v>
+        <v>122.7</v>
       </c>
       <c r="F60" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>8</v>
-      </c>
-      <c r="B61" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B61" t="s">
+        <v>8</v>
       </c>
       <c r="C61" t="n">
         <v>3</v>
       </c>
       <c r="D61" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E61" t="n">
-        <v>124</v>
+        <v>154.6</v>
       </c>
       <c r="F61" t="n">
-        <v>11.1</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>8</v>
-      </c>
-      <c r="B62" t="n">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E62" t="n">
-        <v>100.6</v>
+        <v>106.4</v>
       </c>
       <c r="F62" t="n">
         <v>10.1</v>
@@ -1603,90 +1612,90 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>8</v>
-      </c>
-      <c r="B63" t="n">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E63" t="n">
-        <v>106.1</v>
+        <v>109.9</v>
       </c>
       <c r="F63" t="n">
-        <v>10.1</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>8</v>
-      </c>
-      <c r="B64" t="n">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6</v>
       </c>
       <c r="C64" t="n">
         <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E64" t="n">
-        <v>116.8</v>
+        <v>121.5</v>
       </c>
       <c r="F64" t="n">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>8</v>
-      </c>
-      <c r="B65" t="n">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
       </c>
       <c r="C65" t="n">
         <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E65" t="n">
-        <v>143.1</v>
+        <v>123.1</v>
       </c>
       <c r="F65" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>9</v>
-      </c>
-      <c r="B66" t="n">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E66" t="n">
-        <v>103.3</v>
+        <v>105.9</v>
       </c>
       <c r="F66" t="n">
-        <v>10.1</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>9</v>
-      </c>
-      <c r="B67" t="n">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="B67" t="s">
+        <v>7</v>
       </c>
       <c r="C67" t="n">
         <v>1</v>
@@ -1695,87 +1704,87 @@
         <v>5</v>
       </c>
       <c r="E67" t="n">
-        <v>104.4</v>
+        <v>116.2</v>
       </c>
       <c r="F67" t="n">
-        <v>10.1</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>9</v>
-      </c>
-      <c r="B68" t="n">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
       </c>
       <c r="C68" t="n">
         <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E68" t="n">
-        <v>105.1</v>
+        <v>124.3</v>
       </c>
       <c r="F68" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>9</v>
-      </c>
-      <c r="B69" t="n">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
       </c>
       <c r="C69" t="n">
         <v>3</v>
       </c>
       <c r="D69" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E69" t="n">
-        <v>114.9</v>
+        <v>135.4</v>
       </c>
       <c r="F69" t="n">
-        <v>11.2</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>9</v>
-      </c>
-      <c r="B70" t="n">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E70" t="n">
-        <v>106.2</v>
+        <v>108.4</v>
       </c>
       <c r="F70" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>9</v>
-      </c>
-      <c r="B71" t="n">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
       </c>
       <c r="C71" t="n">
         <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E71" t="n">
-        <v>113.6</v>
+        <v>129.5</v>
       </c>
       <c r="F71" t="n">
         <v>10.3</v>
@@ -1783,59 +1792,59 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>9</v>
-      </c>
-      <c r="B72" t="n">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
       </c>
       <c r="C72" t="n">
         <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E72" t="n">
-        <v>122.8</v>
+        <v>150.5</v>
       </c>
       <c r="F72" t="n">
-        <v>10.6</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>9</v>
-      </c>
-      <c r="B73" t="n">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="B73" t="s">
+        <v>8</v>
       </c>
       <c r="C73" t="n">
         <v>3</v>
       </c>
       <c r="D73" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E73" t="n">
-        <v>144.3</v>
+        <v>182.1</v>
       </c>
       <c r="F73" t="n">
-        <v>11.1</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>10</v>
-      </c>
-      <c r="B74" t="n">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E74" t="n">
-        <v>102.7</v>
+        <v>101.7</v>
       </c>
       <c r="F74" t="n">
         <v>10.1</v>
@@ -1843,142 +1852,942 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>10</v>
-      </c>
-      <c r="B75" t="n">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="B75" t="s">
+        <v>6</v>
       </c>
       <c r="C75" t="n">
         <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E75" t="n">
-        <v>110.6</v>
+        <v>102.5</v>
       </c>
       <c r="F75" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>10</v>
-      </c>
-      <c r="B76" t="n">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="B76" t="s">
+        <v>6</v>
       </c>
       <c r="C76" t="n">
         <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E76" t="n">
-        <v>114</v>
+        <v>108.6</v>
       </c>
       <c r="F76" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>10</v>
-      </c>
-      <c r="B77" t="n">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="B77" t="s">
+        <v>6</v>
       </c>
       <c r="C77" t="n">
         <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E77" t="n">
-        <v>120.9</v>
+        <v>117.5</v>
       </c>
       <c r="F77" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>10</v>
-      </c>
-      <c r="B78" t="n">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E78" t="n">
-        <v>102.4</v>
+        <v>116.8</v>
       </c>
       <c r="F78" t="n">
-        <v>10</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>10</v>
-      </c>
-      <c r="B79" t="n">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
       </c>
       <c r="C79" t="n">
         <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E79" t="n">
-        <v>106.9</v>
+        <v>124.4</v>
       </c>
       <c r="F79" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>10</v>
-      </c>
-      <c r="B80" t="n">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
       </c>
       <c r="C80" t="n">
         <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E80" t="n">
-        <v>111.6</v>
+        <v>141.2</v>
       </c>
       <c r="F80" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
+        <v>7</v>
+      </c>
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" t="n">
+        <v>3</v>
+      </c>
+      <c r="D81" t="n">
+        <v>8</v>
+      </c>
+      <c r="E81" t="n">
+        <v>158.4</v>
+      </c>
+      <c r="F81" t="n">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>7</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>11</v>
+      </c>
+      <c r="E82" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="F82" t="n">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>7</v>
+      </c>
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1</v>
+      </c>
+      <c r="D83" t="n">
+        <v>12</v>
+      </c>
+      <c r="E83" t="n">
+        <v>104.8</v>
+      </c>
+      <c r="F83" t="n">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>7</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2</v>
+      </c>
+      <c r="D84" t="n">
+        <v>9</v>
+      </c>
+      <c r="E84" t="n">
+        <v>124</v>
+      </c>
+      <c r="F84" t="n">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>7</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" t="n">
+        <v>3</v>
+      </c>
+      <c r="D85" t="n">
+        <v>12</v>
+      </c>
+      <c r="E85" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="F85" t="n">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>8</v>
+      </c>
+      <c r="B86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>2</v>
+      </c>
+      <c r="E86" t="n">
+        <v>104.8</v>
+      </c>
+      <c r="F86" t="n">
         <v>10</v>
       </c>
-      <c r="B81" t="n">
-        <v>2</v>
-      </c>
-      <c r="C81" t="n">
-        <v>3</v>
-      </c>
-      <c r="D81" t="n">
-        <v>8</v>
-      </c>
-      <c r="E81" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="F81" t="n">
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>8</v>
+      </c>
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" t="n">
+        <v>4</v>
+      </c>
+      <c r="E87" t="n">
+        <v>111.6</v>
+      </c>
+      <c r="F87" t="n">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>8</v>
+      </c>
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2</v>
+      </c>
+      <c r="D88" t="n">
+        <v>7</v>
+      </c>
+      <c r="E88" t="n">
+        <v>123</v>
+      </c>
+      <c r="F88" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>8</v>
+      </c>
+      <c r="B89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" t="n">
+        <v>3</v>
+      </c>
+      <c r="D89" t="n">
+        <v>7</v>
+      </c>
+      <c r="E89" t="n">
+        <v>130</v>
+      </c>
+      <c r="F89" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>8</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>8</v>
+      </c>
+      <c r="E90" t="n">
+        <v>103.3</v>
+      </c>
+      <c r="F90" t="n">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>8</v>
+      </c>
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" t="n">
+        <v>6</v>
+      </c>
+      <c r="E91" t="n">
+        <v>110</v>
+      </c>
+      <c r="F91" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>8</v>
+      </c>
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2</v>
+      </c>
+      <c r="D92" t="n">
+        <v>9</v>
+      </c>
+      <c r="E92" t="n">
+        <v>119.5</v>
+      </c>
+      <c r="F92" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>8</v>
+      </c>
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" t="n">
+        <v>3</v>
+      </c>
+      <c r="D93" t="n">
+        <v>4</v>
+      </c>
+      <c r="E93" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="F93" t="n">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>8</v>
+      </c>
+      <c r="B94" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>7</v>
+      </c>
+      <c r="E94" t="n">
+        <v>106.3</v>
+      </c>
+      <c r="F94" t="n">
+        <v>10.2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>8</v>
+      </c>
+      <c r="B95" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1</v>
+      </c>
+      <c r="D95" t="n">
+        <v>11</v>
+      </c>
+      <c r="E95" t="n">
+        <v>113.9</v>
+      </c>
+      <c r="F95" t="n">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>8</v>
+      </c>
+      <c r="B96" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2</v>
+      </c>
+      <c r="D96" t="n">
+        <v>9</v>
+      </c>
+      <c r="E96" t="n">
+        <v>126.9</v>
+      </c>
+      <c r="F96" t="n">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>8</v>
+      </c>
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" t="n">
+        <v>3</v>
+      </c>
+      <c r="D97" t="n">
+        <v>10</v>
+      </c>
+      <c r="E97" t="n">
+        <v>157</v>
+      </c>
+      <c r="F97" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>9</v>
+      </c>
+      <c r="B98" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>3</v>
+      </c>
+      <c r="E98" t="n">
+        <v>103.4</v>
+      </c>
+      <c r="F98" t="n">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>9</v>
+      </c>
+      <c r="B99" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1</v>
+      </c>
+      <c r="D99" t="n">
+        <v>4</v>
+      </c>
+      <c r="E99" t="n">
+        <v>107.6</v>
+      </c>
+      <c r="F99" t="n">
+        <v>10.2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>9</v>
+      </c>
+      <c r="B100" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2</v>
+      </c>
+      <c r="D100" t="n">
+        <v>3</v>
+      </c>
+      <c r="E100" t="n">
+        <v>115.3</v>
+      </c>
+      <c r="F100" t="n">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>9</v>
+      </c>
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" t="n">
+        <v>3</v>
+      </c>
+      <c r="D101" t="n">
+        <v>3</v>
+      </c>
+      <c r="E101" t="n">
+        <v>123.6</v>
+      </c>
+      <c r="F101" t="n">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>9</v>
+      </c>
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>7</v>
+      </c>
+      <c r="E102" t="n">
+        <v>108.4</v>
+      </c>
+      <c r="F102" t="n">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>9</v>
+      </c>
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1</v>
+      </c>
+      <c r="D103" t="n">
+        <v>5</v>
+      </c>
+      <c r="E103" t="n">
+        <v>114.5</v>
+      </c>
+      <c r="F103" t="n">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>9</v>
+      </c>
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2</v>
+      </c>
+      <c r="D104" t="n">
+        <v>8</v>
+      </c>
+      <c r="E104" t="n">
+        <v>123.5</v>
+      </c>
+      <c r="F104" t="n">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>9</v>
+      </c>
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" t="n">
+        <v>3</v>
+      </c>
+      <c r="D105" t="n">
+        <v>12</v>
+      </c>
+      <c r="E105" t="n">
+        <v>140.5</v>
+      </c>
+      <c r="F105" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>9</v>
+      </c>
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>11</v>
+      </c>
+      <c r="E106" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="F106" t="n">
+        <v>10.2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>9</v>
+      </c>
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1</v>
+      </c>
+      <c r="D107" t="n">
+        <v>9</v>
+      </c>
+      <c r="E107" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="F107" t="n">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>9</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" t="n">
+        <v>2</v>
+      </c>
+      <c r="D108" t="n">
+        <v>14</v>
+      </c>
+      <c r="E108" t="n">
+        <v>117.1</v>
+      </c>
+      <c r="F108" t="n">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>9</v>
+      </c>
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" t="n">
+        <v>3</v>
+      </c>
+      <c r="D109" t="n">
+        <v>17</v>
+      </c>
+      <c r="E109" t="n">
+        <v>141.8</v>
+      </c>
+      <c r="F109" t="n">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>10</v>
+      </c>
+      <c r="B110" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>2</v>
+      </c>
+      <c r="E110" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="F110" t="n">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>10</v>
+      </c>
+      <c r="B111" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1</v>
+      </c>
+      <c r="D111" t="n">
+        <v>5</v>
+      </c>
+      <c r="E111" t="n">
+        <v>107.9</v>
+      </c>
+      <c r="F111" t="n">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>10</v>
+      </c>
+      <c r="B112" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112" t="n">
+        <v>2</v>
+      </c>
+      <c r="D112" t="n">
+        <v>8</v>
+      </c>
+      <c r="E112" t="n">
+        <v>111.9</v>
+      </c>
+      <c r="F112" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>10</v>
+      </c>
+      <c r="B113" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113" t="n">
+        <v>3</v>
+      </c>
+      <c r="D113" t="n">
+        <v>7</v>
+      </c>
+      <c r="E113" t="n">
+        <v>117.3</v>
+      </c>
+      <c r="F113" t="n">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>10</v>
+      </c>
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>6</v>
+      </c>
+      <c r="E114" t="n">
+        <v>106.5</v>
+      </c>
+      <c r="F114" t="n">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>10</v>
+      </c>
+      <c r="B115" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1</v>
+      </c>
+      <c r="D115" t="n">
+        <v>6</v>
+      </c>
+      <c r="E115" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="F115" t="n">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>10</v>
+      </c>
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2</v>
+      </c>
+      <c r="D116" t="n">
+        <v>10</v>
+      </c>
+      <c r="E116" t="n">
+        <v>120.1</v>
+      </c>
+      <c r="F116" t="n">
         <v>11.3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>10</v>
+      </c>
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" t="n">
+        <v>3</v>
+      </c>
+      <c r="D117" t="n">
+        <v>9</v>
+      </c>
+      <c r="E117" t="n">
+        <v>143.8</v>
+      </c>
+      <c r="F117" t="n">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>10</v>
+      </c>
+      <c r="B118" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>7</v>
+      </c>
+      <c r="E118" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="F118" t="n">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>10</v>
+      </c>
+      <c r="B119" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1</v>
+      </c>
+      <c r="D119" t="n">
+        <v>5</v>
+      </c>
+      <c r="E119" t="n">
+        <v>112.9</v>
+      </c>
+      <c r="F119" t="n">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>10</v>
+      </c>
+      <c r="B120" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2</v>
+      </c>
+      <c r="D120" t="n">
+        <v>10</v>
+      </c>
+      <c r="E120" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="F120" t="n">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>10</v>
+      </c>
+      <c r="B121" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" t="n">
+        <v>3</v>
+      </c>
+      <c r="D121" t="n">
+        <v>12</v>
+      </c>
+      <c r="E121" t="n">
+        <v>154.3</v>
+      </c>
+      <c r="F121" t="n">
+        <v>11.9</v>
       </c>
     </row>
   </sheetData>
